--- a/tests/C#/оригинал/C#.xlsx
+++ b/tests/C#/оригинал/C#.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlads\OneDrive\Рабочий стол\tests\C#\оригинал\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -36,54 +36,42 @@
     <t>right</t>
   </si>
   <si>
+    <t>Выберите уcпешно компилируемые строки:</t>
+  </si>
+  <si>
+    <t>1; 2; 3; 4; 5;</t>
+  </si>
+  <si>
     <t>code1</t>
   </si>
   <si>
-    <t>Выберите уcпешно компилируемые строки:</t>
-  </si>
-  <si>
-    <t>1; 2; 3; 4; 5;</t>
-  </si>
-  <si>
-    <t>2; 3;</t>
-  </si>
-  <si>
     <t>Какие действия необходимо и достаточно выполнить для того, чтобы программа компилировалась?</t>
   </si>
   <si>
     <t>code2</t>
   </si>
   <si>
-    <t>Изменить модификатор доступа класса TypeA на public; Изменить модификатор доступа класса TypeB на public; ничего изменять не надо, программа и так компилируется; Добавить в начале программы строчку "using TypeA"; Изменить строчку "TypeB b = new TypeB();" на "TypeA.TypeB b = new TypeA.TypeB();";</t>
-  </si>
-  <si>
-    <t>Изменить модификатор доступа класса TypeB на public; Изменить строчку "TypeB b = new TypeB();" на "TypeA.TypeB b = new TypeA.TypeB();";</t>
+    <t>Что будет выведено на консоль? (если вариантов ответа несколько, перечислите через запятую - 1, 2,…)</t>
   </si>
   <si>
     <t>Heart, Lung</t>
   </si>
   <si>
-    <t>Что будет выведено на консоль? (если вариантов ответа несколько, перечислите через запятую - 1, 2,…)</t>
-  </si>
-  <si>
     <t>code3</t>
   </si>
   <si>
+    <t>Скомпилируется ли следующий код (как часть некоторого метода(Да/Нет)):</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
     <t>code4</t>
   </si>
   <si>
-    <t>Скомпилируется ли следующий код (как часть некоторого метода(Да/Нет)):</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>Среди перечисленных конструкций C# укажите объявление метода</t>
   </si>
   <si>
-    <t>string GetName () { return “Name”};</t>
-  </si>
-  <si>
     <t>string Name {get{return “Name”}}; string this [int i] {get {return “Name”}}; string GetName () { return “Name”}; string Name;</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>файла, проецируемого в память; кода на промежуточном языке MSIL (в виде делегатов); исключительной ситуации; дерева выражений;</t>
   </si>
   <si>
-    <t>кода на промежуточном языке MSIL (в виде делегатов); дерева выражений;</t>
-  </si>
-  <si>
     <t>Что напечатает следующий код:</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
     <t>Среди перечисленных конструкций C# укажите объявление поля.</t>
   </si>
   <si>
-    <t>string Name;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> string Name {get{return “Name”}}; string Name; string this [int i] {get {return “Name”}}; sting GetName() { return “Name”};</t>
   </si>
   <si>
@@ -132,78 +114,69 @@
     <t>Да; Нет;</t>
   </si>
   <si>
-    <t>Нет;</t>
-  </si>
-  <si>
     <t>Что произойдет в результате выполнения следующего кода:</t>
   </si>
   <si>
-    <t>Код напечатает "e i o u", а дальше уже возникает ошибка времени выполнения;</t>
+    <t>e i o u; Код напечатает "e i o u", а дальше уже возникает ошибка времени выполнения; a e i o; Возникнет ошибка компиляции;</t>
   </si>
   <si>
     <t>code7</t>
   </si>
   <si>
-    <t>e i o u; Код напечатает "e i o u", а дальше уже возникает ошибка времени выполнения; a e i o; Возникнет ошибка компиляции;</t>
-  </si>
-  <si>
     <t>Какие ошибки содержатся в представленном коде:</t>
   </si>
   <si>
+    <t>Метод f должен содержать конструкцию return; В этом коде нет ошибок; Перед вызовом метода f переменная а должна быть проинициализирована; Метод f должен быть объявлен как public; В методе f переменная b должна быть инициализирована до ее использования; В методе f необходимо обязательно присвоить значение переменной b; Переменная b должна быть проинициализирована целочисленным значением или не инициализирована вовсе;</t>
+  </si>
+  <si>
     <t>code8</t>
   </si>
   <si>
-    <t>Перед вызовом метода f переменная а должна быть проинициализирована; В методе f переменная b должна быть инициализирована до ее использования;</t>
-  </si>
-  <si>
-    <t>Метод f должен содержать конструкцию return; В этом коде нет ошибок; Перед вызовом метода f переменная а должна быть проинициализирована; Метод f должен быть объявлен как public; В методе f переменная b должна быть инициализирована до ее использования; В методе f необходимо обязательно присвоить значение переменной b; Переменная b должна быть проинициализирована целочисленным значением или не инициализирована вовсе;</t>
-  </si>
-  <si>
     <t>Какие строки приведут к ошибке компилляции этого кода если он является частью метода?</t>
   </si>
   <si>
+    <t>1; 2; 3; 4;</t>
+  </si>
+  <si>
     <t>code9</t>
   </si>
   <si>
-    <t>2; 4;</t>
-  </si>
-  <si>
-    <t>1; 2; 3; 4;</t>
-  </si>
-  <si>
     <t>Введите недостающий фрагмент:</t>
   </si>
   <si>
+    <t>Array</t>
+  </si>
+  <si>
     <t>code10</t>
   </si>
   <si>
-    <t>Array</t>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>Изменить модификатор доступа класса TypeA на public; Изменить модификатор доступа класса TypeB на public; ничего изменять не надо, программа и так компилируется; Добавить в начале программы строчку "using TypeA"; Изменить строчку "TypeB b = new TypeB()" на "TypeA.TypeB b = new TypeA.TypeB()";</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4;</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>3, 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -213,7 +186,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -243,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -251,18 +230,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,15 +518,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,137 +555,137 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A16" si="0">A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A16" si="0">A3+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -715,15 +693,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -734,15 +712,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -753,14 +731,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -772,14 +750,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -791,17 +769,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -812,17 +790,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -833,17 +811,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -854,15 +832,15 @@
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1138,7 +1116,7 @@
       <c r="H43" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>